--- a/digit_classification/Summit.xlsx
+++ b/digit_classification/Summit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Github\CS114.P21_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Github\CS114.P21_project\digit_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180ACCAB-5F77-43CE-B740-24A44804E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE01A2C-F5D4-455E-9BF5-B20291CC8A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB521FAA-9CC7-462A-8040-CEACDB6FA2CE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>simple_CNN</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>simple_CNN_model_16_weights.pth</t>
+  </si>
+  <si>
+    <t>simple_CNN_model_11_weights.pth</t>
   </si>
 </sst>
 </file>
@@ -425,21 +437,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E22133-260A-4088-BA62-6F22EC0F7B04}">
-  <dimension ref="A1:D663"/>
+  <dimension ref="A1:E663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="2"/>
     <col min="2" max="2" width="9.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.796875" style="2"/>
-    <col min="5" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="3" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,80 +464,119 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>271462</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>271463</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>271464</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
